--- a/0008 User Management/Config/Limit_Line_Default.xlsx
+++ b/0008 User Management/Config/Limit_Line_Default.xlsx
@@ -540,10 +540,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
